--- a/data/María Pinto.xlsx
+++ b/data/María Pinto.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Oenergy Generación Solar Distribuida SpA</t>
+          <t>PFV Los Cisnes SPA</t>
         </is>
       </c>
       <c r="F4" t="n">

--- a/data/María Pinto.xlsx
+++ b/data/María Pinto.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">

--- a/data/María Pinto.xlsx
+++ b/data/María Pinto.xlsx
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F8" t="n">

--- a/data/María Pinto.xlsx
+++ b/data/María Pinto.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/María Pinto.xlsx
+++ b/data/María Pinto.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mejoramiento operacional y ampliación en Fundo El Guanaco</t>
+          <t>Planta Solar Fotovoltaica Canastero</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Agrícola Ariztía Limitada</t>
+          <t>PSF Canastero Spa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10950</v>
+        <v>125000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/01/2022</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160805591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Ruta G-730</t>
+          <t>Mejoramiento operacional y ampliación en Fundo El Guanaco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,20 +482,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Andrés Alejandro Espinosa Rojas</t>
+          <t>Agrícola Ariztía Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>99</v>
+        <v>10950</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/11/2021</t>
+          <t>06/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153054625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154580671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Cisnes</t>
+          <t>Proyecto Ruta G-730</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PFV Los Cisnes SPA</t>
+          <t>Andrés Alejandro Espinosa Rojas</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>99</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>15/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153054625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Oenergy Generación Solar Distribuida SpA</t>
+          <t>PFV Los Cisnes SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146945103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Los Cisnes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,20 +626,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Oenergy Generación Solar Distribuida SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146945103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO LA ROSA DE SHARON</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>La Rosa de Sharon SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18/04/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142736902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Los Molinos</t>
+          <t>PARQUE FOTOVOLTAICO LA ROSA DE SHARON</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>La Rosa de Sharon SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/06/2018</t>
+          <t>18/04/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140774983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142736902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación Medida Proyecto Parque Solar Quilapilún</t>
+          <t>Parque Solar Fotovoltaico Los Molinos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Chungungo S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>543</v>
+        <v>11000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>28/12/2015</t>
+          <t>21/06/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140774983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inversiones y Servicios SunEdison Chile Limitada</t>
+          <t>Chungungo S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>27/11/2015</t>
+          <t>28/12/2015</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130959306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131016261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Modificación Medida Proyecto Parque Solar Quilapilún</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Inversiones y Servicios SunEdison Chile Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>250</v>
+        <v>539</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>27/11/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130959306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación Plantel de Aves Baracaldo</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Agrícola Ariztía Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2400</v>
+        <v>250</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>28/08/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7266187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Drenaje Subsuperficial Agrícola Nacional</t>
+          <t>Ampliación Plantel de Aves Baracaldo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Agrícola Nacional SAC EI</t>
+          <t>Agrícola Ariztía Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>241</v>
+        <v>2400</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>03/08/2012</t>
+          <t>28/08/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7187356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7266187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/07/2012</t>
+          <t>03/08/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7132323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7187356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Construcción Sistema de Drenaje Subsuperficial Agrícola Nacional</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Agrícola Nacional SAC EI</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>18/07/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7132323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación de Servicio de Agua Potable Rural Los Rulos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Los Rulos</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1980</v>
+        <v>200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5302227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1835,21 +1835,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1850</v>
+        <v>1980</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>18/04/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5302227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DIA Planta Aceite Oliva Hacienda Chorombo</t>
+          <t>Mejoramiento y Ampliación de Servicio de Agua Potable Rural Los Rulos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Las Gaitas S.A.</t>
+          <t>Comité de Agua Potable Rural Los Rulos</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2500</v>
+        <v>1850</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/11/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>DIA Planta Aceite Oliva Hacienda Chorombo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Las Gaitas S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1750</v>
+        <v>2500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>26/11/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO SISTEMA DE TRATAMIENTO DE RESIDUOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Viña Mar de Casablanca S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>28/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN DE PROYECTO SISTEMA DE TRATAMIENTO DE RESIDUOS (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Viña Mar de Casablanca S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>28/12/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA MAR DE CASABLANCA S.A - BODEGA MARIA PINTO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Viña Mar de Casablanca S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>IMPLEMENTACION SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS, VIÑA MAR DE CASABLANCA S.A - BODEGA MARIA PINTO (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Viña Mar de Casablanca S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>500</v>
+        <v>37</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/09/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fabricación de Abono Organico en María Pinto (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de María Pinto</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>05/08/2003</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=117745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Fabricación de Abono Organico en María Pinto (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Ilustre Municipalidad de María Pinto</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>05/08/2003</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=117745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cruce de Tubería de Impulsión en Cauce del Estero Puangue</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>María Teresa Hurtado Zañartu</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>14/08/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tranque de riego casas viejas</t>
+          <t>Cruce de Tubería de Impulsión en Cauce del Estero Puangue</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Agrícola Baracaldo S.A.</t>
+          <t>María Teresa Hurtado Zañartu</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20/12/2001</t>
+          <t>14/08/2002</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Alcantarillado Público en el Asentamiento Vista Hermosa Sector Chorombo Bajo</t>
+          <t>Tranque de riego casas viejas</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de María Pinto</t>
+          <t>Agrícola Baracaldo S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>37000</v>
+        <v>110</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>19/11/2001</t>
+          <t>20/12/2001</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Estudio Diseño Alcantarillado Público Sector Asentamiento Vista Hermosa Chorombo Bajo comuna de María Pinto</t>
+          <t>Alcantarillado Público en el Asentamiento Vista Hermosa Sector Chorombo Bajo</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1300</v>
+        <v>37000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,30 +4936,30 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Estudio Diseño Alcantarillado Público Sector Asentamiento Vista Hermosa Chorombo Bajo comuna de María Pinto</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de María Pinto</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1230</v>
+        <v>1300</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>19/11/2001</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,30 +4984,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Plantel de Crianza de Aves</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Agrícola Chorombo S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>610</v>
+        <v>1230</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>21/09/2000</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,30 +5032,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Oleoducto Con Con Maipú</t>
+          <t>Plantel de Crianza de Aves</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
+          <t>Agrícola Chorombo S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>31100</v>
+        <v>610</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>29/01/1998</t>
+          <t>21/09/2000</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,43 +5080,91 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>Oleoducto Con Con Maipú</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>31100</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>29/01/1998</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>María Pinto</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F99" t="n">
+      <c r="F100" t="n">
         <v>850000</v>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>María Pinto</t>
         </is>

--- a/data/María Pinto.xlsx
+++ b/data/María Pinto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
